--- a/Export/DataPivot_박건후.xlsx
+++ b/Export/DataPivot_박건후.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdus\OneDrive\바탕 화면\Uipath 예제_202003up\3. 데이터 피벗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\001_ACME\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="다" sheetId="5" r:id="rId4"/>
     <sheet name="라" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,7 +72,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000년 00월 자료</t>
+    <t>네오</t>
+  </si>
+  <si>
+    <t>라이언</t>
+  </si>
+  <si>
+    <t>무지</t>
+  </si>
+  <si>
+    <t>콘</t>
+  </si>
+  <si>
+    <t>튜브</t>
+  </si>
+  <si>
+    <t>프로도</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 03월 자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,19 +596,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B1" s="10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -571,35 +616,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="C3" s="4">
+        <v>14377782</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="C4" s="6">
+        <v>10066449</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="C5" s="6">
+        <v>14589742</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="C6" s="8">
+        <v>20236689</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <f>SUM(C3:C6)</f>
+        <v>59270662</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -619,14 +675,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -634,35 +690,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1071028</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>424120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3829546</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2922465</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3712220</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2418403</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>14377782</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -678,50 +760,76 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>784447</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>198893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2251230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2350193</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3653356</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>828330</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10066449</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -737,50 +845,76 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1191884</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>390372</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3745871</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2308801</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4760930</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2191884</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>14589742</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -797,53 +931,79 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.3984375" customWidth="1"/>
-    <col min="3" max="3" width="106.8984375" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2525882</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>528701</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3770988</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4038805</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7382141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1990172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
       <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20236689</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
